--- a/biology/Zoologie/Granulifusus_bacciballus/Granulifusus_bacciballus.xlsx
+++ b/biology/Zoologie/Granulifusus_bacciballus/Granulifusus_bacciballus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Granulifusus bacciballus est une espèce d'escargots de mer de la famille des Fasciolariidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Granulifusus bacciballus est une espèce d'escargots de mer de la famille des Fasciolariidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Granulifusus bacciballus a été décrite en 2005 par Roland Hadorn (d) et Koen Fraussen (d)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Granulifusus bacciballus a été décrite en 2005 par Roland Hadorn (d) et Koen Fraussen (d),.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur de sa coquille atteint 25,8 mm.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente au large de la Nouvelle-Calédonie.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Roland Hadorn et Koen Fraussen, « Revision of the genus Granulifusus Kuroda &amp; Habe 1954, with description of some new species (Gastropoda: Prosobranchia: Fasciolariidae) », Archiv für Molluskenkunde, Senckenbergische Naturforschende Gesellschaft, vol. 134, no 2,‎ 15 décembre 2005, p. 129-171 (ISSN 1869-0963 et 2367-0622, OCLC 225396501, DOI 10.1127/ARCH.MOLL/0003-9284/134/129-171)</t>
         </is>
